--- a/data/data_project_917601_2022_10_31.xlsx
+++ b/data/data_project_917601_2022_10_31.xlsx
@@ -16665,8 +16665,8 @@
     <col min="75" max="75" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="76" max="76" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="77" max="77" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="78" max="78" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="79" max="79" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="78" max="78" style="8" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="79" max="79" style="8" width="19.576428571428572" customWidth="1" bestFit="1"/>
     <col min="80" max="80" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="81" max="81" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="82" max="82" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
